--- a/test.xlsx
+++ b/test.xlsx
@@ -25,9 +25,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Lalrammawia</t>
-  </si>
-  <si>
     <t>Lalrinmawia</t>
   </si>
   <si>
@@ -38,6 +35,9 @@
   </si>
   <si>
     <t>Lalmuankima</t>
+  </si>
+  <si>
+    <t>Suraj Sarki</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,46 +414,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,21 +461,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Roll No</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Suraj Sarki</t>
+  </si>
+  <si>
+    <t>Lalramsanga</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,6 +470,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
